--- a/src/main/java/com/mla/qa/testdata/MLATestData.xlsx
+++ b/src/main/java/com/mla/qa/testdata/MLATestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5CFDD130-5042-4F2C-BCA2-0F4BE93E9CD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F94DDE10-316B-4752-B4A0-E948EE6F51FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="28980" windowHeight="16380" xr2:uid="{F0255789-B3E8-4F35-8F5D-C72F52994D77}"/>
+    <workbookView xWindow="2070" yWindow="2070" windowWidth="28980" windowHeight="16380" activeTab="1" xr2:uid="{F0255789-B3E8-4F35-8F5D-C72F52994D77}"/>
   </bookViews>
   <sheets>
     <sheet name="Publisher" sheetId="1" r:id="rId1"/>
+    <sheet name="Media" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:W12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,20 +22,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+  <si>
+    <t>Publisher Name</t>
+  </si>
+  <si>
+    <t>Place Of Publication</t>
+  </si>
   <si>
     <t>Country</t>
   </si>
   <si>
+    <t>Manoj</t>
+  </si>
+  <si>
     <t>Noida</t>
   </si>
   <si>
+    <t>Prashant</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
+    <t>Heena</t>
+  </si>
+  <si>
     <t>Christ the Redeemer</t>
   </si>
   <si>
@@ -44,26 +60,44 @@
     <t>France</t>
   </si>
   <si>
-    <t>PublisherName</t>
-  </si>
-  <si>
-    <t>PlaceOfPublication</t>
-  </si>
-  <si>
-    <t>Prashant2</t>
-  </si>
-  <si>
-    <t>Heena2</t>
-  </si>
-  <si>
-    <t>Manoj3</t>
+    <t>Journal Name</t>
+  </si>
+  <si>
+    <t>Indexer</t>
+  </si>
+  <si>
+    <t>Pub1</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Pub2</t>
+  </si>
+  <si>
+    <t>Pub3</t>
+  </si>
+  <si>
+    <t>Pub</t>
+  </si>
+  <si>
+    <t>neha</t>
+  </si>
+  <si>
+    <t>Test 11</t>
+  </si>
+  <si>
+    <t>Test 22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +109,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1886E1-E312-45ED-BCE6-CB444EEE4F08}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,50 +478,126 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A802CA-4908-4462-90DB-4668D79332E9}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>